--- a/storage/file_excel/DataTEST.xlsx
+++ b/storage/file_excel/DataTEST.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="405">
   <si>
     <t>นางสาว</t>
   </si>
@@ -1225,6 +1225,12 @@
   </si>
   <si>
     <t>ค้าขาย</t>
+  </si>
+  <si>
+    <t>ปริญญาโท</t>
+  </si>
+  <si>
+    <t>ปริญญาเอก</t>
   </si>
 </sst>
 </file>
@@ -1592,8 +1598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1780,7 +1786,7 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2556</v>
+        <v>2557</v>
       </c>
       <c r="B2" s="1">
         <v>1100200605060</v>
@@ -1914,7 +1920,7 @@
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2556</v>
+        <v>2557</v>
       </c>
       <c r="B3" s="1">
         <v>1102001533214</v>
@@ -2045,7 +2051,7 @@
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2556</v>
+        <v>2557</v>
       </c>
       <c r="B4" s="1">
         <v>1102001570501</v>
@@ -2188,7 +2194,7 @@
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2556</v>
+        <v>2557</v>
       </c>
       <c r="B5" s="1">
         <v>1103700195556</v>
@@ -2313,7 +2319,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2556</v>
+        <v>2557</v>
       </c>
       <c r="B6" s="1">
         <v>1100701085662</v>
@@ -2447,7 +2453,7 @@
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2556</v>
+        <v>2557</v>
       </c>
       <c r="B7" s="1">
         <v>1100900450573</v>
@@ -2492,7 +2498,7 @@
         <v>319</v>
       </c>
       <c r="S7" t="s">
-        <v>1</v>
+        <v>404</v>
       </c>
       <c r="T7" t="s">
         <v>166</v>
@@ -2593,7 +2599,7 @@
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2556</v>
+        <v>2557</v>
       </c>
       <c r="B8" s="1">
         <v>1103700780629</v>
@@ -2742,7 +2748,7 @@
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2556</v>
+        <v>2557</v>
       </c>
       <c r="B9" s="1">
         <v>1140600100321</v>
@@ -2885,7 +2891,7 @@
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2556</v>
+        <v>2557</v>
       </c>
       <c r="B10" s="1">
         <v>1199900323251</v>
@@ -3034,7 +3040,7 @@
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2556</v>
+        <v>2557</v>
       </c>
       <c r="B11" s="1">
         <v>1500400077080</v>
@@ -3171,7 +3177,7 @@
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2556</v>
+        <v>2557</v>
       </c>
       <c r="B12" s="1">
         <v>1500700121394</v>
@@ -3314,7 +3320,7 @@
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2556</v>
+        <v>2557</v>
       </c>
       <c r="B13" s="1">
         <v>1560300166455</v>
@@ -3463,7 +3469,7 @@
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2556</v>
+        <v>2557</v>
       </c>
       <c r="B14" s="1">
         <v>1330800178373</v>
@@ -3594,7 +3600,7 @@
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2556</v>
+        <v>2557</v>
       </c>
       <c r="B15" s="1">
         <v>1350100193922</v>
@@ -4050,7 +4056,7 @@
         <v>330</v>
       </c>
       <c r="S18" t="s">
-        <v>1</v>
+        <v>403</v>
       </c>
       <c r="T18" t="s">
         <v>166</v>
@@ -4151,7 +4157,7 @@
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="B19" s="1">
         <v>1419900250201</v>
@@ -4193,7 +4199,7 @@
         <v>331</v>
       </c>
       <c r="S19" t="s">
-        <v>1</v>
+        <v>403</v>
       </c>
       <c r="T19" t="s">
         <v>166</v>
@@ -4321,7 +4327,7 @@
         <v>332</v>
       </c>
       <c r="S20" t="s">
-        <v>1</v>
+        <v>403</v>
       </c>
       <c r="T20" t="s">
         <v>166</v>
@@ -4410,7 +4416,7 @@
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>2556</v>
+        <v>2553</v>
       </c>
       <c r="B21" s="1">
         <v>1459900198772</v>
@@ -4452,7 +4458,7 @@
         <v>333</v>
       </c>
       <c r="S21" t="s">
-        <v>1</v>
+        <v>403</v>
       </c>
       <c r="T21" t="s">
         <v>166</v>
@@ -4583,7 +4589,7 @@
         <v>334</v>
       </c>
       <c r="S22" t="s">
-        <v>1</v>
+        <v>403</v>
       </c>
       <c r="T22" t="s">
         <v>166</v>
@@ -4714,7 +4720,7 @@
         <v>335</v>
       </c>
       <c r="S23" t="s">
-        <v>1</v>
+        <v>403</v>
       </c>
       <c r="T23" t="s">
         <v>166</v>
@@ -4845,7 +4851,7 @@
         <v>336</v>
       </c>
       <c r="S24" t="s">
-        <v>1</v>
+        <v>403</v>
       </c>
       <c r="T24" t="s">
         <v>166</v>
@@ -4976,7 +4982,7 @@
         <v>337</v>
       </c>
       <c r="S25" t="s">
-        <v>1</v>
+        <v>403</v>
       </c>
       <c r="T25" t="s">
         <v>166</v>
@@ -5107,7 +5113,7 @@
         <v>338</v>
       </c>
       <c r="S26" t="s">
-        <v>1</v>
+        <v>403</v>
       </c>
       <c r="T26" t="s">
         <v>166</v>
@@ -5244,7 +5250,7 @@
         <v>339</v>
       </c>
       <c r="S27" t="s">
-        <v>1</v>
+        <v>403</v>
       </c>
       <c r="T27" t="s">
         <v>166</v>
@@ -5375,7 +5381,7 @@
         <v>340</v>
       </c>
       <c r="S28" t="s">
-        <v>1</v>
+        <v>403</v>
       </c>
       <c r="T28" t="s">
         <v>166</v>
@@ -5506,7 +5512,7 @@
         <v>341</v>
       </c>
       <c r="S29" t="s">
-        <v>1</v>
+        <v>403</v>
       </c>
       <c r="T29" t="s">
         <v>166</v>
@@ -5649,7 +5655,7 @@
         <v>342</v>
       </c>
       <c r="S30" t="s">
-        <v>1</v>
+        <v>403</v>
       </c>
       <c r="T30" t="s">
         <v>166</v>
